--- a/biology/Microbiologie/Choanozoa/Choanozoa.xlsx
+++ b/biology/Microbiologie/Choanozoa/Choanozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Choanozoa (en français Choanozoaires) forment un embranchement d'eucaryotes du règne des  Protozoa.
 En classification phylogénétique ils appartiennent à la lignée (ou clade) des Opisthochontes. 
-Les animaux (Animalia) ont émergé parmi les Choanozoa en tant que clade frère des Choanoflagellés[1]. En effet, d'après Cavalier-Smith, les phylums des Choanozoa et des Amoebozoa, peuvent être regroupés dans le sous-règne paraphylétique des Sarcomastigota, à partir duquel les animaux et les champignons ont évolué indépendamment[2].
-Les Choanozoa ont été décrits comme possédant un cil postérieur[2].
+Les animaux (Animalia) ont émergé parmi les Choanozoa en tant que clade frère des Choanoflagellés. En effet, d'après Cavalier-Smith, les phylums des Choanozoa et des Amoebozoa, peuvent être regroupés dans le sous-règne paraphylétique des Sarcomastigota, à partir duquel les animaux et les champignons ont évolué indépendamment.
+Les Choanozoa ont été décrits comme possédant un cil postérieur.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Choanozoa est dérivé du grec ancien χόανος / choanos, entonnoir, et ζῶον / zōon, animal[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Choanozoa est dérivé du grec ancien χόανος / choanos, entonnoir, et ζῶον / zōon, animal.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Liste des sous-embranchements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (16 septembre 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (16 septembre 2022) :
 Choanofila
 Cristidiscoidia
-Selon l'IRMNG  (16 septembre 2022)[5] :
+Selon l'IRMNG  (16 septembre 2022) :
 Choanofila
 Paramycia</t>
         </is>
@@ -580,9 +596,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 septembre 2022)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 septembre 2022) :
 Choanoflagellatea
 Cristidiscoidea
 Filasterea
@@ -615,14 +633,16 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Choanozoa, choisi par le biologiste britannique Thomas Cavalier-Smith, en 1981[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Choanozoa, choisi par le biologiste britannique Thomas Cavalier-Smith, en 1981.
 Dans son acception initiale, Choanozoa avait pour synonymes :
-Choanoflagellata[4]
-Craspediophyta[4]
-Craspedophyta[4]
-Cryptomycota[5]</t>
+Choanoflagellata
+Craspediophyta
+Craspedophyta
+Cryptomycota</t>
         </is>
       </c>
     </row>
